--- a/Artefakte/Stakeholder.xlsx
+++ b/Artefakte/Stakeholder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ES\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Documents\GitHub\EPWS2324HausenHeSancak\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16495A4-3C25-4FEB-9D8A-D5E31321C9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44075AC-0D4F-4FF1-BDB5-B6DFA56F3E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FA4F2E1A-4E64-4EAB-B63F-62062AF393D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA4F2E1A-4E64-4EAB-B63F-62062AF393D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
   <si>
     <t>Stakeholder</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Software-Entwickler</t>
-  </si>
-  <si>
-    <t>primar</t>
   </si>
   <si>
     <t>sekundär</t>
@@ -248,7 +245,28 @@
     <t>Positive Bewertung von den Nutzern über den Kundensupport und die Plattfromsicherheit</t>
   </si>
   <si>
-    <t>Steigerung des Interesses und Verkaufs ihrer Spiele durch das System</t>
+    <t>primär</t>
+  </si>
+  <si>
+    <t>Spieleentwickler</t>
+  </si>
+  <si>
+    <t>Möglichkeit Spieler für Tests zu finden</t>
+  </si>
+  <si>
+    <t>Steigerung des Interesses und Werbung ihrer Spiele durch das System</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Möglichkeit mit Spielern und Testern zu kommunizieren</t>
+  </si>
+  <si>
+    <t>Als Spieleentwickler muss man Feedback und Ideen sammeln, um bessere Spiele zu entwickeln.</t>
+  </si>
+  <si>
+    <t>Als Spieleentwickler muss man Prototypen testen, um bessere Spiele zu entwickeln.</t>
   </si>
 </sst>
 </file>
@@ -372,8 +390,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -389,7 +407,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -685,13 +703,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6935FD-0488-4E36-B74E-DF1CB4E63377}">
-  <dimension ref="B1:H23"/>
+  <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="5" customWidth="1"/>
@@ -718,7 +736,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>3</v>
@@ -732,19 +750,19 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:7" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -752,19 +770,19 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -772,19 +790,19 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:7" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -792,19 +810,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:7" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -812,19 +830,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:7" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -832,19 +850,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -852,19 +870,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:7" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -872,19 +890,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:7" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -892,19 +910,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:7" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -912,19 +930,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:7" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -932,144 +950,144 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:7" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>7</v>
+      <c r="B14" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:7" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:8" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:8" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:8" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>12</v>
+      <c r="B19" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>12</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
@@ -1078,74 +1096,114 @@
         <v>16</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="2"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="2:8" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>10</v>
+      <c r="B21" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>10</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>59</v>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
